--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\SourceCodes\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files(x86)\Projects\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266646D-12F4-4C45-ACA1-34E2C96C8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D120D-C4E8-4075-AE6B-36927A17D33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47325" yWindow="4395" windowWidth="25620" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -50,6 +50,46 @@
   </si>
   <si>
     <t>mongodb://127.0.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区服名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区服类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZoneType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +132,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -119,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,6 +184,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,74 +495,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E7"/>
+  <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="21" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
